--- a/resources/experiment 2/metrics/R2/upto time/Fallo Cardiaco (UPTO).xlsx
+++ b/resources/experiment 2/metrics/R2/upto time/Fallo Cardiaco (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1202.185677818618</v>
+        <v>-1202.185677818615</v>
       </c>
       <c r="C2" t="n">
-        <v>-1202.185677818618</v>
+        <v>-1202.185677818615</v>
       </c>
       <c r="D2" t="n">
-        <v>-1202.185677818618</v>
+        <v>-1202.185677818615</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7525680231290492</v>
+        <v>-8.438828532583759</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7525680018180483</v>
+        <v>-6.792568641035932</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7525680018180483</v>
+        <v>-107.8213689204281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7573164803755069</v>
+        <v>0.790683654242312</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7573164686977473</v>
+        <v>0.8043968418901722</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7573164686977473</v>
+        <v>-24.36813127761268</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5034997914332323</v>
+        <v>-3.988025472442858</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5034997914332323</v>
+        <v>-6.875104746379869</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5034997914332323</v>
+        <v>-518.1470808205112</v>
       </c>
     </row>
   </sheetData>
